--- a/data/surge/surgeData239.xlsx
+++ b/data/surge/surgeData239.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/R10/CH4_239_Philips/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="8_{E54FC95E-6B8D-414B-A5B0-781E55DEA73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{565B102A-250E-402A-A602-8862CD379E5F}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{99C39AC8-BAF1-4AA4-AA1E-15932445416B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{158049F8-BE6D-49FF-8BE9-3C5B55540BFB}"/>
   <bookViews>
-    <workbookView xWindow="32880" yWindow="2160" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Database">data!$B$2:$BP$47</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentManualCount="6"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="239">
   <si>
     <t>F1</t>
   </si>
@@ -669,6 +669,96 @@
   </si>
   <si>
     <t>18R100140</t>
+  </si>
+  <si>
+    <t>10:08:00</t>
+  </si>
+  <si>
+    <t>11:18:00</t>
+  </si>
+  <si>
+    <t>11:07:00</t>
+  </si>
+  <si>
+    <t>10:48:00</t>
+  </si>
+  <si>
+    <t>10:34:00</t>
+  </si>
+  <si>
+    <t>11:05:00</t>
+  </si>
+  <si>
+    <t>12:20:00</t>
+  </si>
+  <si>
+    <t>12:58:00</t>
+  </si>
+  <si>
+    <t>12:34:00</t>
+  </si>
+  <si>
+    <t>12:47:00</t>
+  </si>
+  <si>
+    <t>16:19:00</t>
+  </si>
+  <si>
+    <t>17:32:00</t>
+  </si>
+  <si>
+    <t>15:34:00</t>
+  </si>
+  <si>
+    <t>14:04:00</t>
+  </si>
+  <si>
+    <t>16:06:00</t>
+  </si>
+  <si>
+    <t>17:06:00</t>
+  </si>
+  <si>
+    <t>14:22:00</t>
+  </si>
+  <si>
+    <t>14:38:00</t>
+  </si>
+  <si>
+    <t>16:44:00</t>
+  </si>
+  <si>
+    <t>15:04:00</t>
+  </si>
+  <si>
+    <t>13:02:00</t>
+  </si>
+  <si>
+    <t>13:24:00</t>
+  </si>
+  <si>
+    <t>12:21:00</t>
+  </si>
+  <si>
+    <t>12:33:00</t>
+  </si>
+  <si>
+    <t>12:50:00</t>
+  </si>
+  <si>
+    <t>09:45:00</t>
+  </si>
+  <si>
+    <t>09:19:00</t>
+  </si>
+  <si>
+    <t>09:55:00</t>
+  </si>
+  <si>
+    <t>09:32:00</t>
+  </si>
+  <si>
+    <t>09:06:00</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1289,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1288,6 +1378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1645,79 +1736,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I18" sqref="I18"/>
+      <selection pane="topRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.33203125" customWidth="1"/>
-    <col min="30" max="30" width="10.33203125" customWidth="1"/>
-    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.26953125" customWidth="1"/>
+    <col min="30" max="30" width="10.26953125" customWidth="1"/>
+    <col min="31" max="31" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.33203125" customWidth="1"/>
-    <col min="51" max="51" width="8.33203125" customWidth="1"/>
-    <col min="52" max="52" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.33203125" customWidth="1"/>
-    <col min="65" max="65" width="14.88671875" customWidth="1"/>
-    <col min="66" max="66" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.26953125" customWidth="1"/>
+    <col min="51" max="51" width="8.26953125" customWidth="1"/>
+    <col min="52" max="52" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.26953125" customWidth="1"/>
+    <col min="65" max="65" width="14.81640625" customWidth="1"/>
+    <col min="66" max="66" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1900,7 @@
       <c r="BY1" s="32"/>
       <c r="BZ1" s="32"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
@@ -2045,7 +2136,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>182</v>
       </c>
@@ -2064,18 +2155,19 @@
       <c r="F3" t="s">
         <v>199</v>
       </c>
-      <c r="G3" s="27">
-        <v>0.67986111111111114</v>
+      <c r="G3" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="H3" t="s">
         <v>200</v>
       </c>
-      <c r="I3" s="27">
-        <v>0.40625</v>
+      <c r="I3" s="25" t="s">
+        <v>234</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
+      <c r="K3" s="25"/>
       <c r="T3" t="s">
         <v>200</v>
       </c>
@@ -2136,7 +2228,7 @@
       <c r="BY3" s="29"/>
       <c r="BZ3" s="26"/>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
         <v>182</v>
       </c>
@@ -2155,18 +2247,19 @@
       <c r="F4" t="s">
         <v>199</v>
       </c>
-      <c r="G4" s="27">
-        <v>0.73055555555555562</v>
+      <c r="G4" s="25" t="s">
+        <v>220</v>
       </c>
       <c r="H4" t="s">
         <v>200</v>
       </c>
-      <c r="I4" s="27">
-        <v>0.38819444444444445</v>
+      <c r="I4" s="25" t="s">
+        <v>235</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
+      <c r="K4" s="25"/>
       <c r="T4" t="s">
         <v>200</v>
       </c>
@@ -2225,7 +2318,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>182</v>
       </c>
@@ -2244,18 +2337,19 @@
       <c r="F5" t="s">
         <v>199</v>
       </c>
-      <c r="G5" s="27">
-        <v>0.64861111111111114</v>
+      <c r="G5" s="25" t="s">
+        <v>221</v>
       </c>
       <c r="H5" t="s">
         <v>200</v>
       </c>
-      <c r="I5" s="27">
-        <v>0.42222222222222222</v>
+      <c r="I5" s="25" t="s">
+        <v>209</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
+      <c r="K5" s="25"/>
       <c r="T5" t="s">
         <v>200</v>
       </c>
@@ -2320,7 +2414,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
         <v>182</v>
       </c>
@@ -2339,18 +2433,19 @@
       <c r="F6" t="s">
         <v>199</v>
       </c>
-      <c r="G6" s="27">
-        <v>0.58611111111111114</v>
+      <c r="G6" s="25" t="s">
+        <v>222</v>
       </c>
       <c r="H6" t="s">
         <v>200</v>
       </c>
-      <c r="I6" s="27">
-        <v>0.47083333333333338</v>
+      <c r="I6" s="25" t="s">
+        <v>210</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
+      <c r="K6" s="25"/>
       <c r="T6" t="s">
         <v>200</v>
       </c>
@@ -2409,7 +2504,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>182</v>
       </c>
@@ -2422,24 +2517,25 @@
       <c r="D7" s="30">
         <v>44.677599999999998</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="38">
         <v>-118.015</v>
       </c>
       <c r="F7" t="s">
         <v>199</v>
       </c>
-      <c r="G7" s="27">
-        <v>0.67083333333333339</v>
+      <c r="G7" s="25" t="s">
+        <v>223</v>
       </c>
       <c r="H7" t="s">
         <v>200</v>
       </c>
-      <c r="I7" s="27">
-        <v>0.41319444444444442</v>
+      <c r="I7" s="25" t="s">
+        <v>236</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
+      <c r="K7" s="25"/>
       <c r="T7" t="s">
         <v>200</v>
       </c>
@@ -2498,7 +2594,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
         <v>182</v>
       </c>
@@ -2517,18 +2613,19 @@
       <c r="F8" t="s">
         <v>199</v>
       </c>
-      <c r="G8" s="27">
-        <v>0.71250000000000002</v>
+      <c r="G8" s="25" t="s">
+        <v>224</v>
       </c>
       <c r="H8" t="s">
         <v>200</v>
       </c>
-      <c r="I8" s="27">
-        <v>0.3972222222222222</v>
+      <c r="I8" s="25" t="s">
+        <v>237</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
+      <c r="K8" s="25"/>
       <c r="T8" t="s">
         <v>200</v>
       </c>
@@ -2587,7 +2684,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A9" s="25" t="s">
         <v>182</v>
       </c>
@@ -2606,18 +2703,19 @@
       <c r="F9" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="27">
-        <v>0.59861111111111109</v>
+      <c r="G9" s="25" t="s">
+        <v>225</v>
       </c>
       <c r="H9" t="s">
         <v>200</v>
       </c>
-      <c r="I9" s="27">
-        <v>0.46319444444444446</v>
+      <c r="I9" s="25" t="s">
+        <v>211</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
+      <c r="K9" s="25"/>
       <c r="T9" t="s">
         <v>200</v>
       </c>
@@ -2676,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
         <v>182</v>
       </c>
@@ -2695,18 +2793,19 @@
       <c r="F10" t="s">
         <v>199</v>
       </c>
-      <c r="G10" s="27">
-        <v>0.60972222222222217</v>
+      <c r="G10" s="25" t="s">
+        <v>226</v>
       </c>
       <c r="H10" t="s">
         <v>200</v>
       </c>
-      <c r="I10" s="27">
-        <v>0.45</v>
+      <c r="I10" s="25" t="s">
+        <v>212</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
+      <c r="K10" s="25"/>
       <c r="T10" t="s">
         <v>200</v>
       </c>
@@ -2765,7 +2864,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>182</v>
       </c>
@@ -2784,18 +2883,19 @@
       <c r="F11" t="s">
         <v>199</v>
       </c>
-      <c r="G11" s="27">
-        <v>0.6972222222222223</v>
+      <c r="G11" s="25" t="s">
+        <v>227</v>
       </c>
       <c r="H11" t="s">
         <v>200</v>
       </c>
-      <c r="I11" s="27">
-        <v>0.37916666666666665</v>
+      <c r="I11" s="25" t="s">
+        <v>238</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
+      <c r="K11" s="25"/>
       <c r="T11" t="s">
         <v>200</v>
       </c>
@@ -2854,7 +2954,7 @@
         <v>90.8</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>182</v>
       </c>
@@ -2867,24 +2967,25 @@
       <c r="D12" s="30">
         <v>44.67886</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="38">
         <v>-118.0202</v>
       </c>
       <c r="F12" t="s">
         <v>199</v>
       </c>
-      <c r="G12" s="27">
-        <v>0.62777777777777777</v>
+      <c r="G12" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="H12" t="s">
         <v>200</v>
       </c>
-      <c r="I12" s="27">
-        <v>0.44027777777777777</v>
+      <c r="I12" s="25" t="s">
+        <v>213</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
+      <c r="K12" s="25"/>
       <c r="T12" t="s">
         <v>200</v>
       </c>
@@ -2943,7 +3044,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
         <v>182</v>
       </c>
@@ -2962,18 +3063,19 @@
       <c r="F13" t="s">
         <v>199</v>
       </c>
-      <c r="G13" s="27">
-        <v>0.54305555555555551</v>
+      <c r="G13" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="H13" t="s">
         <v>200</v>
       </c>
-      <c r="I13" s="27">
-        <v>0.46180555555555558</v>
+      <c r="I13" s="25" t="s">
+        <v>214</v>
       </c>
       <c r="J13">
         <v>4</v>
       </c>
+      <c r="K13" s="25"/>
       <c r="T13" t="s">
         <v>200</v>
       </c>
@@ -3038,7 +3140,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>182</v>
       </c>
@@ -3057,18 +3159,19 @@
       <c r="F14" t="s">
         <v>199</v>
       </c>
-      <c r="G14" s="27">
-        <v>0.55833333333333335</v>
+      <c r="G14" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="H14" t="s">
         <v>200</v>
       </c>
-      <c r="I14" s="27">
-        <v>0.51388888888888895</v>
+      <c r="I14" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
+      <c r="K14" s="25"/>
       <c r="T14" t="s">
         <v>200</v>
       </c>
@@ -3127,7 +3230,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>182</v>
       </c>
@@ -3146,18 +3249,19 @@
       <c r="F15" t="s">
         <v>199</v>
       </c>
-      <c r="G15" s="27">
-        <v>0.51458333333333328</v>
+      <c r="G15" s="25" t="s">
+        <v>231</v>
       </c>
       <c r="H15" t="s">
         <v>200</v>
       </c>
-      <c r="I15" s="27">
-        <v>0.54027777777777775</v>
+      <c r="I15" s="25" t="s">
+        <v>216</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
+      <c r="K15" s="25"/>
       <c r="T15" t="s">
         <v>200</v>
       </c>
@@ -3216,7 +3320,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>182</v>
       </c>
@@ -3235,18 +3339,19 @@
       <c r="F16" t="s">
         <v>199</v>
       </c>
-      <c r="G16" s="27">
-        <v>0.5229166666666667</v>
+      <c r="G16" s="25" t="s">
+        <v>232</v>
       </c>
       <c r="H16" t="s">
         <v>200</v>
       </c>
-      <c r="I16" s="27">
-        <v>0.52361111111111114</v>
+      <c r="I16" s="25" t="s">
+        <v>217</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
+      <c r="K16" s="25"/>
       <c r="T16" t="s">
         <v>200</v>
       </c>
@@ -3305,7 +3410,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
         <v>182</v>
       </c>
@@ -3318,24 +3423,25 @@
       <c r="D17" s="30">
         <v>44.677280000000003</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="38">
         <v>-118.0472</v>
       </c>
       <c r="F17" t="s">
         <v>199</v>
       </c>
-      <c r="G17" s="27">
-        <v>0.53472222222222221</v>
+      <c r="G17" s="25" t="s">
+        <v>233</v>
       </c>
       <c r="H17" t="s">
         <v>200</v>
       </c>
-      <c r="I17" s="27">
-        <v>0.53263888888888888</v>
+      <c r="I17" s="25" t="s">
+        <v>218</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
+      <c r="K17" s="25"/>
       <c r="T17" t="s">
         <v>200</v>
       </c>
@@ -3394,7 +3500,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.35">
       <c r="G18" s="26"/>
       <c r="I18" s="26"/>
       <c r="U18" s="27"/>
@@ -3422,14 +3528,14 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.6640625" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.7265625" customWidth="1"/>
+    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -3440,7 +3546,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3451,7 +3557,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3462,7 +3568,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -3473,7 +3579,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3484,7 +3590,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3495,7 +3601,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3506,7 +3612,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3517,7 +3623,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3528,7 +3634,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3539,7 +3645,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3550,7 +3656,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3561,7 +3667,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3572,7 +3678,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3580,7 +3686,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3591,7 +3697,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3599,7 +3705,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3610,7 +3716,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3618,7 +3724,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3629,7 +3735,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3637,7 +3743,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3648,7 +3754,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3659,7 +3765,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3670,7 +3776,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3681,7 +3787,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -3692,7 +3798,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3703,7 +3809,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3711,7 +3817,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3722,7 +3828,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -3733,7 +3839,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -3744,7 +3850,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3755,7 +3861,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -3766,7 +3872,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -3777,7 +3883,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -3788,7 +3894,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -3799,7 +3905,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -3810,7 +3916,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -3818,7 +3924,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -3826,7 +3932,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -3834,7 +3940,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -3842,7 +3948,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -3850,7 +3956,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -3858,7 +3964,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -3866,7 +3972,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -3874,7 +3980,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -3882,7 +3988,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -3890,7 +3996,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -3898,7 +4004,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -3906,7 +4012,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -3914,7 +4020,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -3922,7 +4028,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -3933,7 +4039,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -3944,7 +4050,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -3955,7 +4061,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -3966,7 +4072,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -3977,7 +4083,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -3988,7 +4094,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -3999,7 +4105,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -4010,7 +4116,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -4018,7 +4124,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -4026,7 +4132,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -4034,7 +4140,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -4042,7 +4148,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -4050,7 +4156,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -4058,7 +4164,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -4066,7 +4172,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -4074,7 +4180,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -4082,7 +4188,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -4090,7 +4196,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -4098,7 +4204,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -4106,7 +4212,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -4114,7 +4220,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -4122,7 +4228,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -4133,7 +4239,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -4144,7 +4250,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -4155,7 +4261,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -4166,7 +4272,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -4177,7 +4283,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4188,7 +4294,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -4212,17 +4318,17 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="25"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="25"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
@@ -4238,7 +4344,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -4272,7 +4378,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>182</v>
       </c>
@@ -4301,7 +4407,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
         <v>182</v>
       </c>
@@ -4330,7 +4436,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>182</v>
       </c>
@@ -4359,7 +4465,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
         <v>182</v>
       </c>
@@ -4405,14 +4511,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5546875" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.54296875" customWidth="1"/>
+    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -4423,7 +4529,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4434,7 +4540,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4445,7 +4551,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>163</v>
       </c>
@@ -4456,7 +4562,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>164</v>
       </c>
@@ -4467,7 +4573,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>165</v>
       </c>
@@ -4478,7 +4584,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>166</v>
       </c>
@@ -4486,7 +4592,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>167</v>
       </c>
@@ -4497,7 +4603,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>168</v>
       </c>
@@ -4508,7 +4614,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>169</v>
       </c>
@@ -4525,6 +4631,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
@@ -4564,20 +4684,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5052,15 +5158,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5074,9 +5174,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
